--- a/Seater/output.xlsx
+++ b/Seater/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,1155 +424,2171 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>URL422J1</t>
+          <t>EDU122J</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>URL422J2</t>
+          <t>URL122N</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>URL422J3</t>
+          <t>HST022I</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>HST422N</t>
+          <t>ESE024V</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>GEN422N</t>
+          <t>HYS024V</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>URL422N</t>
+          <t>CNS122A</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>HST422J1</t>
+          <t>EDU122S</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>HST422J2</t>
+          <t>PLS122N</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>HST422J3</t>
+          <t>KRL122N</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>KRL422J1</t>
+          <t>URL022I</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>KRL422J2</t>
+          <t>GEN122N</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>KRL422J3</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>EDU422N</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>PLS422J1</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>PLS422J2</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>PLS422J3</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>KRL422N</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>PLS422N</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>EDU422J1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>EDU422J2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>EDU422J3</t>
+          <t>PLS022I</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24416471</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24416471</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24416471</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24416471</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24416473</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24416485</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24416485</t>
+          <t>25047455</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24416485</t>
+          <t>25047473</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24416485</t>
+          <t>25047475</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24416496</t>
+          <t>25047475</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>24416496</t>
+          <t>25047476</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>24416496</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>24416497</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>24416498</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>24416498</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>24416498</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>24416498</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>24416499</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>24416502</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>24416502</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>24416502</t>
+          <t>25047476</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24416472</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24416472</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24416472</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24416472</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24416474</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24416486</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24416486</t>
+          <t>25047456</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24416486</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>24416486</t>
+          <t>25047477</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24416497</t>
+          <t>25047487</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>24416497</t>
+          <t>25047478</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>24416497</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>24416503</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>24416500</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>24416500</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>24416500</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>24416500</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>24416504</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>24416504</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>24416504</t>
+          <t>25047484</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24416473</t>
+          <t>25047457</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24416473</t>
+          <t>25047457</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24416473</t>
+          <t>25047457</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24416476</t>
+          <t>25047457</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24416475</t>
+          <t>25047457</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24416496</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>24416499</t>
+          <t>25047457</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>25047457</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25047485</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>24416499</t>
+          <t>25047480</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>24416499</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>24416502</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>24416507</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>24416507</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>24416507</t>
+          <t>25047486</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24416474</t>
+          <t>25047458</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24416474</t>
+          <t>25047458</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24416474</t>
+          <t>25047458</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24416477</t>
+          <t>25047458</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24416479</t>
+          <t>25047458</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24416501</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>24416501</t>
+          <t>25047458</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>25047458</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25047487</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>24416501</t>
+          <t>25047484</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>24416501</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>24416504</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>24416517</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>24416517</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>24416517</t>
+          <t>25047493</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24416475</t>
+          <t>25047459</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24416475</t>
+          <t>25047459</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24416475</t>
+          <t>25047459</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24416478</t>
+          <t>25047459</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24416480</t>
+          <t>25047459</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24416505</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>24416503</t>
+          <t>25047459</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25047459</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>25047489</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>24416503</t>
+          <t>25047492</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>24416503</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>24416507</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>24416518</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>24416518</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>24416518</t>
+          <t>25047494</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24416476</t>
+          <t>25047460</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24416476</t>
+          <t>25047460</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24416476</t>
+          <t>25047460</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24416482</t>
+          <t>25047460</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24416481</t>
+          <t>25047460</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24416506</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>24416505</t>
+          <t>25047460</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25047460</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>24416505</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>24416505</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>24416511</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>24416519</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>24416519</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>24416519</t>
+          <t>25047499</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24416477</t>
+          <t>25047461</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24416477</t>
+          <t>25047461</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24416477</t>
+          <t>25047461</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24416483</t>
+          <t>25047461</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24416484</t>
+          <t>25047461</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24416509</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>24416506</t>
+          <t>25047461</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25047461</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>24416506</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>24416506</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>24416517</t>
+          <t>25047508</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24416478</t>
+          <t>25047462</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24416478</t>
+          <t>25047462</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24416478</t>
+          <t>25047462</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24416487</t>
+          <t>25047462</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24416492</t>
+          <t>25047462</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24416510</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>24416508</t>
+          <t>25047462</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25047462</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>24416508</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>24416508</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>24416518</t>
+          <t>25047509</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24416479</t>
+          <t>25047463</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24416479</t>
+          <t>25047463</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24416479</t>
+          <t>25047463</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24416488</t>
+          <t>25047463</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24416494</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>24416509</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>24416509</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>24416509</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>24416519</t>
+          <t>25047463</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>25047463</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>25047463</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24416480</t>
+          <t>25047464</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24416480</t>
+          <t>25047464</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24416480</t>
+          <t>25047464</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24416489</t>
+          <t>25047464</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24416495</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>24416510</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>24416510</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>24416510</t>
+          <t>25047464</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>25047464</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>25047464</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24416481</t>
+          <t>25047465</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24416481</t>
+          <t>25047465</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24416481</t>
+          <t>25047465</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24416490</t>
+          <t>25047465</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24416508</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>24416512</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>24416512</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>24416512</t>
+          <t>25047465</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25047465</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25047465</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24416482</t>
+          <t>25047466</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24416482</t>
+          <t>25047466</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24416482</t>
+          <t>25047466</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24416491</t>
+          <t>25047466</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24416512</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>24416513</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>24416513</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>24416513</t>
+          <t>25047466</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25047466</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>25047466</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24416483</t>
+          <t>25047467</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24416483</t>
+          <t>25047467</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>24416483</t>
+          <t>25047467</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24416493</t>
+          <t>25047467</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24416513</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>24416514</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>24416514</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>24416514</t>
+          <t>25047467</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25047467</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>25047467</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24416484</t>
+          <t>25047468</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24416484</t>
+          <t>25047468</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24416484</t>
+          <t>25047468</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25047468</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24416514</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>24416515</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>24416515</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>24416515</t>
+          <t>25047468</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>25047468</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>25047468</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24416487</t>
+          <t>25047469</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24416487</t>
+          <t>25047469</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>24416487</t>
+          <t>25047469</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25047469</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24416515</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>24416516</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>24416516</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>24416516</t>
+          <t>25047469</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>25047469</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>25047469</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24416488</t>
+          <t>25047470</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24416488</t>
+          <t>25047470</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24416488</t>
+          <t>25047470</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25047470</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24416516</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>24416520</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>24416520</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>24416520</t>
+          <t>25047470</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>25047470</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>25047470</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24416489</t>
+          <t>25047471</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24416489</t>
+          <t>25047471</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24416489</t>
+          <t>25047471</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25047471</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24416520</t>
+          <t>25047471</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25047471</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>25047471</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24416490</t>
+          <t>25047472</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24416490</t>
+          <t>25047472</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24416490</t>
+          <t>25047472</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25047472</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25047472</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25047472</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>25047472</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24416491</t>
+          <t>25047473</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24416491</t>
+          <t>25047474</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>24416491</t>
+          <t>25047473</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25047473</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25047473</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>25047473</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>25047473</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>24416492</t>
+          <t>25047474</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24416492</t>
+          <t>25047479</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>24416492</t>
+          <t>25047474</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25047474</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25047474</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25047474</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>25047474</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24416493</t>
+          <t>25047475</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24416493</t>
+          <t>25047481</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24416493</t>
+          <t>25047477</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25047475</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25047475</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25047475</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>25047475</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>24416494</t>
+          <t>25047476</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>24416494</t>
+          <t>25047482</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>24416494</t>
+          <t>25047478</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25047476</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25047476</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25047476</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>25047476</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24416495</t>
+          <t>25047477</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24416495</t>
+          <t>25047483</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24416495</t>
+          <t>25047479</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25047477</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25047477</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>25047477</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>25047477</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24416511</t>
+          <t>25047478</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24416511</t>
+          <t>25047486</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24416511</t>
+          <t>25047480</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25047478</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25047478</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>25047478</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>25047478</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25047479</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25047481</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25047479</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25047479</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25047479</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>25047479</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25047480</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>25047482</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25047480</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25047480</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25047480</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>25047480</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25047481</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25047483</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25047481</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25047481</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>25047481</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>25047481</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>25047482</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25047493</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>25047485</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25047482</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25047482</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>25047482</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>25047482</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>25047483</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25047494</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25047483</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25047483</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>25047483</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>25047483</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>25047484</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>25047489</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25047484</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25047484</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>25047484</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>25047484</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>25047485</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25047485</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25047485</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>25047485</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>25047485</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>25047486</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25047486</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25047486</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>25047486</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>25047486</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>25047487</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25047492</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25047487</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25047487</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>25047487</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>25047487</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>25047488</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>25047489</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25047489</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25047489</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>25047489</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>25047489</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>25047490</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>25047491</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>25047492</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>25047499</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25047492</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25047492</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>25047492</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>25047492</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>25047493</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25047493</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25047493</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>25047493</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>25047493</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>25047494</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>25047494</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25047494</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25047494</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>25047494</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>25047495</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>25047496</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25047511</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>25047497</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>25047498</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>25047499</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>25047499</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25047499</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>25047499</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>25047499</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>25047500</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>25047508</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>25047501</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>25047509</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>25047502</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>25047503</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>25047511</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>25047504</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>25047505</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>25047506</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>25047507</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>25047508</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>25047508</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25047508</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>25047508</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>25047508</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>25047509</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>25047509</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25047509</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>25047509</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>25047509</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>25047510</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>25047511</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>25047511</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25047511</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>25047511</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>25047511</t>
         </is>
       </c>
     </row>
